--- a/data/DNA_data/PB220419dd_batch_5.xlsx
+++ b/data/DNA_data/PB220419dd_batch_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\Speciale\Data\DNA_quantification_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\projekter\Master-thesis\data\DNA_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2F353-5830-4421-A178-0D38B97EF318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B61DB72-A221-4339-B4B7-379663AB1352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,19 +103,19 @@
     <t>11-05-2022 10:39:34</t>
   </si>
   <si>
-    <t>SDS 40:1 (v/w) with tissue + 1% antibiotics</t>
-  </si>
-  <si>
-    <t>Native Lyophilized tissue</t>
-  </si>
-  <si>
-    <t>SDS 96 h switch after 3 d + 1% antibiotics</t>
-  </si>
-  <si>
-    <t>SDS 48 h</t>
-  </si>
-  <si>
     <t>Weight (mg)</t>
+  </si>
+  <si>
+    <t>PDE5 A3</t>
+  </si>
+  <si>
+    <t>PDE5 A3E</t>
+  </si>
+  <si>
+    <t>PDE5 A3sw4</t>
+  </si>
+  <si>
+    <t>NA3L</t>
   </si>
 </sst>
 </file>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1221,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1262,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1385,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1467,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
